--- a/UML Class Diagrams.xlsx
+++ b/UML Class Diagrams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natra\Desktop\CS1D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55192CE4-252B-4C7C-B490-45753B8EE601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC12E1F-76A6-4DDC-BEEA-397520A9FE51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F690A98-954B-4AB7-943E-F4B41C3B4990}"/>
+    <workbookView xWindow="-9600" yWindow="3570" windowWidth="17190" windowHeight="15600" xr2:uid="{8F690A98-954B-4AB7-943E-F4B41C3B4990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,16 +88,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -112,7 +112,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="447675" y="228600"/>
+          <a:off x="9086850" y="2257425"/>
           <a:ext cx="3048001" cy="1543050"/>
           <a:chOff x="1219200" y="923925"/>
           <a:chExt cx="3048001" cy="1543050"/>
@@ -314,16 +314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>85723</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -338,10 +338,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3657600" y="219074"/>
-          <a:ext cx="4191000" cy="1962150"/>
-          <a:chOff x="1219200" y="1012099"/>
-          <a:chExt cx="3048001" cy="1135244"/>
+          <a:off x="9077325" y="200023"/>
+          <a:ext cx="4191000" cy="1981200"/>
+          <a:chOff x="1219200" y="1001077"/>
+          <a:chExt cx="3048001" cy="1146266"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -357,7 +357,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1219200" y="1012099"/>
+            <a:off x="1219200" y="1001077"/>
             <a:ext cx="3048000" cy="130901"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -565,16 +565,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -589,7 +589,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="457200" y="2266951"/>
+          <a:off x="9096375" y="3895726"/>
           <a:ext cx="3619500" cy="2466975"/>
           <a:chOff x="1219200" y="1019424"/>
           <a:chExt cx="3048001" cy="1301791"/>
@@ -818,16 +818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152436</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -842,10 +842,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4305300" y="2381249"/>
-          <a:ext cx="8229600" cy="4886324"/>
+          <a:off x="723900" y="190499"/>
+          <a:ext cx="8229600" cy="5676937"/>
           <a:chOff x="1219200" y="1075383"/>
-          <a:chExt cx="3048001" cy="1510902"/>
+          <a:chExt cx="3048001" cy="1367554"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -908,7 +908,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="1219200" y="1142999"/>
-            <a:ext cx="3048001" cy="415402"/>
+            <a:ext cx="3048001" cy="354579"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -951,6 +951,17 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>- foodInfo : QVector&lt;QPair&lt;QString, double&gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- allDistances : QVector&lt;double&gt;</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1023,8 +1034,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1219200" y="1549565"/>
-            <a:ext cx="3048000" cy="1036720"/>
+            <a:off x="1219200" y="1497998"/>
+            <a:ext cx="3048000" cy="944939"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1058,6 +1069,18 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> City(QString name)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
               <a:t>+ City(QString name, QString foodName, double foodCost, double distParis, double distBerlin, double tempLatitude, double tempLongitude)</a:t>
             </a:r>
           </a:p>
@@ -1191,6 +1214,851 @@
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
               <a:t>+ getCoordinates() : QGeoCoordinate</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ getAllDistances() : QVector&lt;double&gt;&amp; getAllDistances()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+getDistance(QString cityName) : double</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="Group 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6014A30-8163-40F0-862A-0DEECB1590B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="723900" y="5962651"/>
+          <a:ext cx="5372100" cy="2800350"/>
+          <a:chOff x="1219200" y="1019424"/>
+          <a:chExt cx="3048001" cy="1301791"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="Rectangle 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467072B2-7621-4DED-84C8-6A62B38484EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1019424"/>
+            <a:ext cx="3048000" cy="123576"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>customplan</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Rectangle 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F50FDC-3411-43F6-8FDC-BD24F55B6B88}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1142999"/>
+            <a:ext cx="3048001" cy="368994"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- *ui : Ui::customPlan</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- customCityData : QVector&lt;City&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- selectedCities : QVector&lt;City&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- cityPlan : QVector&lt;City&gt;</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rectangle 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFBD60D-5222-4825-8515-E58E1BB209A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1501942"/>
+            <a:ext cx="3048000" cy="819273"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>+ customPlan(QWidget</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> *parent = nullptr) : explicit</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ addCity(City data) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ addCustomCityData(QVector&lt;City&gt; data) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ setupMenu() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ getSelectedCities() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ findMostEfficientPath() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ recursivePathinngCustomPlan(City start, QVector&lt;City&gt; &amp;cities, QVector&lt;City&gt; &amp;sorted)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ ~customPlan</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="Group 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDAA812-4023-4CB2-A766-96E8FE430128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6210300" y="6467474"/>
+          <a:ext cx="5372100" cy="3305176"/>
+          <a:chOff x="1219200" y="1019424"/>
+          <a:chExt cx="3048001" cy="963159"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Rectangle 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33C0DDA-0A8A-4CDC-B373-E5C14098D64B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1019424"/>
+            <a:ext cx="3048000" cy="77719"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>foodplanner</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Rectangle 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC0677F-F037-47E2-8F51-01613F2D16D6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1097143"/>
+            <a:ext cx="3048001" cy="438557"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- *ui : Ui::foodPlanner</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- travelPlan : QVector&lt;City&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- purchasedFood : QVector&lt;QPair&lt;City, QVector&lt;int&gt;&gt;&gt; </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- foodList : QVector&lt;QPair&lt;QString, double&gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- cartList : QVector&lt;QPair&lt;QString, double&gt;&gt;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- currentCity : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- cartCount : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- totalDistance : double</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="Rectangle 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF271343-454D-45B2-8CC0-936F78446117}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1532924"/>
+            <a:ext cx="3048000" cy="449659"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>+ foodPlanner(QWidget</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> *parent = nullptr) : explicit</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ addCity(City data) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ addTravelPlanData(QVector&lt;City&gt; data) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ setupUi() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ correctFood(Qstring) : bool</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ findCurrentCity(QString foodName) : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>recursivePathinngCustomPlan(City start, QVector&lt;City&gt; &amp;cities, QVector&lt;City&gt; &amp;sorted)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+ ~foodPlanner</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="Group 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24CC611-6358-4EBF-A354-DDA86E73FA11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="714375" y="8905875"/>
+          <a:ext cx="5372100" cy="2143126"/>
+          <a:chOff x="1219200" y="1019424"/>
+          <a:chExt cx="3048001" cy="996269"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="Rectangle 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDC783D-2308-4FA0-819F-20C958D73837}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1019424"/>
+            <a:ext cx="3048000" cy="123576"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>receipt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Rectangle 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADFF848-130C-443B-B8E5-4B4FCE51012D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1142999"/>
+            <a:ext cx="3048001" cy="323639"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- *ui : Ui::Receipt</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- purchasedFood : QVector&lt;QPair&lt;City, QVector&lt;int&gt;&gt;&gt; purchasedFood</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>- totalDistance : double</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Rectangle 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24B618B-3C1D-477B-8765-A1EBE2E139EF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="1466638"/>
+            <a:ext cx="3048000" cy="549055"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>+ Receipt(QWidget</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> *parent = nullptr) : explicit</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ setTotalDist(double temp) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ getTotalDist() : double</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ addData(QVector&lt;QPair&lt;City, QVector&lt;int&gt;&gt;&gt; data);</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ printReceipt() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>+ ~Receipt</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100"/>
           </a:p>
@@ -1501,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC145FA7-C5A9-4FB1-A3EA-C91CBB76570F}">
   <dimension ref="C2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
